--- a/New Microsoft Office Excel Worksheet.xlsx
+++ b/New Microsoft Office Excel Worksheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>gnfj</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>sgsh</t>
+  </si>
+  <si>
+    <t>gifigh</t>
   </si>
 </sst>
 </file>
@@ -356,14 +359,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F9:S16"/>
+  <dimension ref="F7:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="7" spans="6:19">
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="9" spans="6:19">
       <c r="F9" t="s">
         <v>0</v>
